--- a/results/synthetic_constraint_0.1_opt_constrained/k=2(for_10_workers_and_less)/Winner_determination/dataset_01/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/synthetic_constraint_0.1_opt_constrained/k=2(for_10_workers_and_less)/Winner_determination/dataset_01/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\synthetic_constraint_0.1_opt_constrained\k=2(for_10_workers_and_less)\Winner_determination\dataset_01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD6670C-DD6F-493B-B992-419BB77CF089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>dataset</t>
   </si>
@@ -182,13 +188,25 @@
   </si>
   <si>
     <t>Official_Experiment_Winner_dataset_01_instance_30_29_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,15 +265,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +355,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +407,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +600,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -642,19 +706,19 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>60.91511450111294</v>
+        <v>60.915114501112939</v>
       </c>
       <c r="H2">
-        <v>21.1819769823873</v>
+        <v>21.181976982387301</v>
       </c>
       <c r="I2">
-        <v>39.73313751872564</v>
+        <v>39.733137518725641</v>
       </c>
       <c r="J2">
         <v>0.4</v>
       </c>
       <c r="K2">
-        <v>39.73313751872563</v>
+        <v>39.733137518725627</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -666,25 +730,25 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>60.91511450111294</v>
+        <v>60.915114501112939</v>
       </c>
       <c r="P2">
-        <v>21.1819769823873</v>
+        <v>21.181976982387301</v>
       </c>
       <c r="Q2">
-        <v>1.056330651729461</v>
+        <v>1.0563306517294611</v>
       </c>
       <c r="R2">
         <v>17.35796596800202</v>
       </c>
       <c r="S2">
-        <v>2.875799296343468</v>
+        <v>2.8757992963434682</v>
       </c>
       <c r="T2">
-        <v>2.875799296343468</v>
+        <v>2.8757992963434682</v>
       </c>
       <c r="U2">
-        <v>1.056330651729461</v>
+        <v>1.0563306517294611</v>
       </c>
       <c r="V2">
         <v>17.35796596800202</v>
@@ -702,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -722,19 +786,19 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>49.78744945609102</v>
+        <v>49.787449456091018</v>
       </c>
       <c r="H3">
-        <v>14.71968783029454</v>
+        <v>14.719687830294539</v>
       </c>
       <c r="I3">
-        <v>35.06776162579648</v>
+        <v>35.067761625796479</v>
       </c>
       <c r="J3">
         <v>0.4</v>
       </c>
       <c r="K3">
-        <v>35.06776162579648</v>
+        <v>35.067761625796479</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -746,16 +810,16 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>49.78744945609102</v>
+        <v>49.787449456091018</v>
       </c>
       <c r="P3">
-        <v>14.71968783029454</v>
+        <v>14.719687830294539</v>
       </c>
       <c r="Q3">
         <v>1.218577027419721</v>
       </c>
       <c r="R3">
-        <v>17.13068818500991</v>
+        <v>17.130688185009909</v>
       </c>
       <c r="S3">
         <v>3.3823712860013</v>
@@ -767,22 +831,22 @@
         <v>1.218577027419721</v>
       </c>
       <c r="V3">
-        <v>17.13068818500991</v>
+        <v>17.130688185009909</v>
       </c>
       <c r="W3">
-        <v>74.03769647337525</v>
+        <v>74.037696473375249</v>
       </c>
       <c r="X3">
         <v>109.1054580991717</v>
       </c>
       <c r="Y3">
-        <v>74.03769647337525</v>
+        <v>74.037696473375249</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -802,19 +866,19 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>62.69342039037883</v>
+        <v>62.693420390378833</v>
       </c>
       <c r="H4">
-        <v>17.04997119989969</v>
+        <v>17.049971199899691</v>
       </c>
       <c r="I4">
-        <v>45.64344919047913</v>
+        <v>45.643449190479132</v>
       </c>
       <c r="J4">
         <v>0.4</v>
       </c>
       <c r="K4">
-        <v>45.64344919047913</v>
+        <v>45.643449190479132</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -826,43 +890,43 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>62.69342039037883</v>
+        <v>62.693420390378833</v>
       </c>
       <c r="P4">
-        <v>17.04997119989969</v>
+        <v>17.049971199899691</v>
       </c>
       <c r="Q4">
         <v>1.302107989607356</v>
       </c>
       <c r="R4">
-        <v>23.44254546851442</v>
+        <v>23.442545468514421</v>
       </c>
       <c r="S4">
-        <v>3.677039665072728</v>
+        <v>3.6770396650727282</v>
       </c>
       <c r="T4">
-        <v>3.677039665072728</v>
+        <v>3.6770396650727282</v>
       </c>
       <c r="U4">
         <v>1.302107989607356</v>
       </c>
       <c r="V4">
-        <v>23.44254546851442</v>
+        <v>23.442545468514421</v>
       </c>
       <c r="W4">
-        <v>59.1309243343207</v>
+        <v>59.130924334320703</v>
       </c>
       <c r="X4">
         <v>104.7743735247998</v>
       </c>
       <c r="Y4">
-        <v>59.1309243343207</v>
+        <v>59.130924334320703</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -882,19 +946,19 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>50.92120587542418</v>
+        <v>50.921205875424178</v>
       </c>
       <c r="H5">
-        <v>11.80446429376832</v>
+        <v>11.804464293768319</v>
       </c>
       <c r="I5">
-        <v>39.11674158165585</v>
+        <v>39.116741581655852</v>
       </c>
       <c r="J5">
         <v>0.4</v>
       </c>
       <c r="K5">
-        <v>39.11674158165585</v>
+        <v>39.116741581655852</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -906,43 +970,43 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>50.92120587542418</v>
+        <v>50.921205875424178</v>
       </c>
       <c r="P5">
-        <v>11.80446429376832</v>
+        <v>11.804464293768319</v>
       </c>
       <c r="Q5">
-        <v>1.461801665269579</v>
+        <v>1.4618016652695791</v>
       </c>
       <c r="R5">
-        <v>21.86095601941003</v>
+        <v>21.860956019410029</v>
       </c>
       <c r="S5">
-        <v>4.313724418846005</v>
+        <v>4.3137244188460047</v>
       </c>
       <c r="T5">
-        <v>4.313724418846005</v>
+        <v>4.3137244188460047</v>
       </c>
       <c r="U5">
-        <v>1.461801665269579</v>
+        <v>1.4618016652695791</v>
       </c>
       <c r="V5">
-        <v>21.86095601941003</v>
+        <v>21.860956019410029</v>
       </c>
       <c r="W5">
-        <v>66.47752693352706</v>
+        <v>66.477526933527059</v>
       </c>
       <c r="X5">
         <v>105.5942685151829</v>
       </c>
       <c r="Y5">
-        <v>66.47752693352706</v>
+        <v>66.477526933527059</v>
       </c>
       <c r="Z5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -962,19 +1026,19 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>67.6923956422478</v>
+        <v>67.692395642247803</v>
       </c>
       <c r="H6">
-        <v>24.16461200490176</v>
+        <v>24.164612004901759</v>
       </c>
       <c r="I6">
-        <v>43.52778363734605</v>
+        <v>43.527783637346047</v>
       </c>
       <c r="J6">
         <v>0.4</v>
       </c>
       <c r="K6">
-        <v>43.52778363734605</v>
+        <v>43.527783637346047</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -986,16 +1050,16 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>67.6923956422478</v>
+        <v>67.692395642247803</v>
       </c>
       <c r="P6">
-        <v>24.16461200490176</v>
+        <v>24.164612004901759</v>
       </c>
       <c r="Q6">
-        <v>1.030084600179101</v>
+        <v>1.0300846001791011</v>
       </c>
       <c r="R6">
-        <v>18.63618894179371</v>
+        <v>18.636188941793709</v>
       </c>
       <c r="S6">
         <v>2.801302815394533</v>
@@ -1004,25 +1068,25 @@
         <v>2.801302815394533</v>
       </c>
       <c r="U6">
-        <v>1.030084600179101</v>
+        <v>1.0300846001791011</v>
       </c>
       <c r="V6">
-        <v>18.63618894179371</v>
+        <v>18.636188941793709</v>
       </c>
       <c r="W6">
-        <v>89.42514535421485</v>
+        <v>89.425145354214848</v>
       </c>
       <c r="X6">
         <v>132.9529289915609</v>
       </c>
       <c r="Y6">
-        <v>89.42514535421485</v>
+        <v>89.425145354214848</v>
       </c>
       <c r="Z6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,16 +1109,16 @@
         <v>76.1281942675366</v>
       </c>
       <c r="H7">
-        <v>19.2345989108895</v>
+        <v>19.234598910889499</v>
       </c>
       <c r="I7">
-        <v>56.8935953566471</v>
+        <v>56.893595356647097</v>
       </c>
       <c r="J7">
         <v>0.4</v>
       </c>
       <c r="K7">
-        <v>56.8935953566471</v>
+        <v>56.893595356647097</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1069,7 +1133,7 @@
         <v>76.1281942675366</v>
       </c>
       <c r="P7">
-        <v>19.2345989108895</v>
+        <v>19.234598910889499</v>
       </c>
       <c r="Q7">
         <v>1.375708002030674</v>
@@ -1078,10 +1142,10 @@
         <v>30.43240371908594</v>
       </c>
       <c r="S7">
-        <v>3.957877916780334</v>
+        <v>3.9578779167803342</v>
       </c>
       <c r="T7">
-        <v>3.957877916780334</v>
+        <v>3.9578779167803342</v>
       </c>
       <c r="U7">
         <v>1.375708002030674</v>
@@ -1093,7 +1157,7 @@
         <v>38.18481862796218</v>
       </c>
       <c r="X7">
-        <v>95.07841398460928</v>
+        <v>95.078413984609284</v>
       </c>
       <c r="Y7">
         <v>38.18481862796218</v>
@@ -1102,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1122,19 +1186,19 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>38.23807278518859</v>
+        <v>38.238072785188592</v>
       </c>
       <c r="H8">
         <v>11.63464837804991</v>
       </c>
       <c r="I8">
-        <v>26.60342440713868</v>
+        <v>26.603424407138679</v>
       </c>
       <c r="J8">
         <v>0.4</v>
       </c>
       <c r="K8">
-        <v>26.60342440713868</v>
+        <v>26.603424407138679</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -1146,43 +1210,43 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>38.23807278518859</v>
+        <v>38.238072785188592</v>
       </c>
       <c r="P8">
         <v>11.63464837804991</v>
       </c>
       <c r="Q8">
-        <v>1.189844113791593</v>
+        <v>1.1898441137915929</v>
       </c>
       <c r="R8">
         <v>12.76000651848109</v>
       </c>
       <c r="S8">
-        <v>3.286568836693774</v>
+        <v>3.2865688366937742</v>
       </c>
       <c r="T8">
-        <v>3.286568836693774</v>
+        <v>3.2865688366937742</v>
       </c>
       <c r="U8">
-        <v>1.189844113791593</v>
+        <v>1.1898441137915929</v>
       </c>
       <c r="V8">
         <v>12.76000651848109</v>
       </c>
       <c r="W8">
-        <v>53.69264825537111</v>
+        <v>53.692648255371111</v>
       </c>
       <c r="X8">
-        <v>80.29607266250979</v>
+        <v>80.296072662509786</v>
       </c>
       <c r="Y8">
-        <v>53.69264825537111</v>
+        <v>53.692648255371111</v>
       </c>
       <c r="Z8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1202,19 +1266,19 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>67.6935148864933</v>
+        <v>67.693514886493304</v>
       </c>
       <c r="H9">
         <v>27.65959851449411</v>
       </c>
       <c r="I9">
-        <v>40.0339163719992</v>
+        <v>40.033916371999197</v>
       </c>
       <c r="J9">
         <v>0.4</v>
       </c>
       <c r="K9">
-        <v>40.0339163719992</v>
+        <v>40.033916371999197</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -1226,43 +1290,43 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>67.6935148864933</v>
+        <v>67.693514886493304</v>
       </c>
       <c r="P9">
         <v>27.65959851449411</v>
       </c>
       <c r="Q9">
-        <v>0.8950175722928054</v>
+        <v>0.89501757229280543</v>
       </c>
       <c r="R9">
         <v>15.27808965896299</v>
       </c>
       <c r="S9">
-        <v>2.44737879514125</v>
+        <v>2.4473787951412498</v>
       </c>
       <c r="T9">
-        <v>2.44737879514125</v>
+        <v>2.4473787951412498</v>
       </c>
       <c r="U9">
-        <v>0.8950175722928054</v>
+        <v>0.89501757229280543</v>
       </c>
       <c r="V9">
         <v>15.27808965896299</v>
       </c>
       <c r="W9">
-        <v>70.66664873765384</v>
+        <v>70.666648737653844</v>
       </c>
       <c r="X9">
         <v>110.700565109653</v>
       </c>
       <c r="Y9">
-        <v>70.66664873765384</v>
+        <v>70.666648737653844</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1288,13 +1352,13 @@
         <v>19.39830863245491</v>
       </c>
       <c r="I10">
-        <v>52.69226401098685</v>
+        <v>52.692264010986847</v>
       </c>
       <c r="J10">
         <v>0.4</v>
       </c>
       <c r="K10">
-        <v>52.69226401098685</v>
+        <v>52.692264010986847</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -1312,10 +1376,10 @@
         <v>19.39830863245491</v>
       </c>
       <c r="Q10">
-        <v>1.31273740346229</v>
+        <v>1.3127374034622901</v>
       </c>
       <c r="R10">
-        <v>27.22737870525786</v>
+        <v>27.227378705257859</v>
       </c>
       <c r="S10">
         <v>3.716332903520696</v>
@@ -1324,25 +1388,25 @@
         <v>3.716332903520696</v>
       </c>
       <c r="U10">
-        <v>1.31273740346229</v>
+        <v>1.3127374034622901</v>
       </c>
       <c r="V10">
-        <v>27.22737870525786</v>
+        <v>27.227378705257859</v>
       </c>
       <c r="W10">
-        <v>80.8466499939024</v>
+        <v>80.846649993902403</v>
       </c>
       <c r="X10">
-        <v>133.5389140048893</v>
+        <v>133.53891400488931</v>
       </c>
       <c r="Y10">
-        <v>80.8466499939024</v>
+        <v>80.846649993902403</v>
       </c>
       <c r="Z10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1365,16 +1429,16 @@
         <v>52.79388038932229</v>
       </c>
       <c r="H11">
-        <v>10.3187646399729</v>
+        <v>10.318764639972899</v>
       </c>
       <c r="I11">
-        <v>42.47511574934938</v>
+        <v>42.475115749349378</v>
       </c>
       <c r="J11">
         <v>0.4</v>
       </c>
       <c r="K11">
-        <v>42.47511574934938</v>
+        <v>42.475115749349378</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -1389,40 +1453,40 @@
         <v>52.79388038932229</v>
       </c>
       <c r="P11">
-        <v>10.3187646399729</v>
+        <v>10.318764639972899</v>
       </c>
       <c r="Q11">
-        <v>1.632431234818544</v>
+        <v>1.6324312348185439</v>
       </c>
       <c r="R11">
-        <v>25.63044204631649</v>
+        <v>25.630442046316489</v>
       </c>
       <c r="S11">
-        <v>5.116298532947343</v>
+        <v>5.1162985329473427</v>
       </c>
       <c r="T11">
-        <v>5.116298532947343</v>
+        <v>5.1162985329473427</v>
       </c>
       <c r="U11">
-        <v>1.632431234818544</v>
+        <v>1.6324312348185439</v>
       </c>
       <c r="V11">
-        <v>25.63044204631649</v>
+        <v>25.630442046316489</v>
       </c>
       <c r="W11">
-        <v>49.11652650369463</v>
+        <v>49.116526503694629</v>
       </c>
       <c r="X11">
-        <v>91.59164225304401</v>
+        <v>91.591642253044014</v>
       </c>
       <c r="Y11">
-        <v>49.11652650369463</v>
+        <v>49.116526503694629</v>
       </c>
       <c r="Z11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1442,19 +1506,19 @@
         <v>2</v>
       </c>
       <c r="G12">
-        <v>49.30388616820517</v>
+        <v>49.303886168205167</v>
       </c>
       <c r="H12">
         <v>12.28881636588622</v>
       </c>
       <c r="I12">
-        <v>37.01506980231895</v>
+        <v>37.015069802318948</v>
       </c>
       <c r="J12">
         <v>0.4</v>
       </c>
       <c r="K12">
-        <v>37.01506980231895</v>
+        <v>37.015069802318948</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -1466,43 +1530,43 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>49.30388616820517</v>
+        <v>49.303886168205167</v>
       </c>
       <c r="P12">
         <v>12.28881636588622</v>
       </c>
       <c r="Q12">
-        <v>1.389313294658807</v>
+        <v>1.3893132946588069</v>
       </c>
       <c r="R12">
-        <v>19.94205384957249</v>
+        <v>19.942053849572488</v>
       </c>
       <c r="S12">
-        <v>4.012093980431903</v>
+        <v>4.0120939804319029</v>
       </c>
       <c r="T12">
-        <v>4.012093980431903</v>
+        <v>4.0120939804319029</v>
       </c>
       <c r="U12">
-        <v>1.389313294658807</v>
+        <v>1.3893132946588069</v>
       </c>
       <c r="V12">
-        <v>19.94205384957249</v>
+        <v>19.942053849572488</v>
       </c>
       <c r="W12">
-        <v>76.45556661893212</v>
+        <v>76.455566618932124</v>
       </c>
       <c r="X12">
         <v>113.4706364212511</v>
       </c>
       <c r="Y12">
-        <v>76.45556661893212</v>
+        <v>76.455566618932124</v>
       </c>
       <c r="Z12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1522,19 +1586,19 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.19524352381604</v>
+        <v>20.195243523816039</v>
       </c>
       <c r="H13">
-        <v>7.66533414932962</v>
+        <v>7.6653341493296203</v>
       </c>
       <c r="I13">
-        <v>12.52990937448642</v>
+        <v>12.529909374486421</v>
       </c>
       <c r="J13">
         <v>0.2</v>
       </c>
       <c r="K13">
-        <v>12.52990937448642</v>
+        <v>12.529909374486421</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1546,43 +1610,43 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>20.19524352381604</v>
+        <v>20.195243523816039</v>
       </c>
       <c r="P13">
-        <v>7.66533414932962</v>
+        <v>7.6653341493296203</v>
       </c>
       <c r="Q13">
-        <v>0.9687390020161948</v>
+        <v>0.96873900201619478</v>
       </c>
       <c r="R13">
-        <v>5.104201220544185</v>
+        <v>5.1042012205441853</v>
       </c>
       <c r="S13">
-        <v>2.634620113146957</v>
+        <v>2.6346201131469571</v>
       </c>
       <c r="T13">
-        <v>2.634620113146957</v>
+        <v>2.6346201131469571</v>
       </c>
       <c r="U13">
-        <v>0.9687390020161948</v>
+        <v>0.96873900201619478</v>
       </c>
       <c r="V13">
-        <v>5.104201220544185</v>
+        <v>5.1042012205441853</v>
       </c>
       <c r="W13">
-        <v>62.24296047951363</v>
+        <v>62.242960479513627</v>
       </c>
       <c r="X13">
-        <v>74.77286985400005</v>
+        <v>74.772869854000049</v>
       </c>
       <c r="Y13">
-        <v>62.24296047951363</v>
+        <v>62.242960479513627</v>
       </c>
       <c r="Z13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1602,19 +1666,19 @@
         <v>2</v>
       </c>
       <c r="G14">
-        <v>63.31309674354904</v>
+        <v>63.313096743549039</v>
       </c>
       <c r="H14">
-        <v>15.53542143637308</v>
+        <v>15.535421436373079</v>
       </c>
       <c r="I14">
-        <v>47.77767530717595</v>
+        <v>47.777675307175947</v>
       </c>
       <c r="J14">
         <v>0.4</v>
       </c>
       <c r="K14">
-        <v>47.77767530717595</v>
+        <v>47.777675307175947</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1626,43 +1690,43 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>63.31309674354904</v>
+        <v>63.313096743549039</v>
       </c>
       <c r="P14">
-        <v>15.53542143637308</v>
+        <v>15.535421436373079</v>
       </c>
       <c r="Q14">
-        <v>1.404969536668219</v>
+        <v>1.4049695366682191</v>
       </c>
       <c r="R14">
-        <v>25.95088144976934</v>
+        <v>25.950881449769341</v>
       </c>
       <c r="S14">
-        <v>4.07540258903528</v>
+        <v>4.0754025890352796</v>
       </c>
       <c r="T14">
-        <v>4.07540258903528</v>
+        <v>4.0754025890352796</v>
       </c>
       <c r="U14">
-        <v>1.404969536668219</v>
+        <v>1.4049695366682191</v>
       </c>
       <c r="V14">
-        <v>25.95088144976934</v>
+        <v>25.950881449769341</v>
       </c>
       <c r="W14">
-        <v>74.32717199576874</v>
+        <v>74.327171995768737</v>
       </c>
       <c r="X14">
-        <v>122.1048473029447</v>
+        <v>122.10484730294471</v>
       </c>
       <c r="Y14">
-        <v>74.32717199576874</v>
+        <v>74.327171995768737</v>
       </c>
       <c r="Z14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1685,16 +1749,16 @@
         <v>57.95307446787907</v>
       </c>
       <c r="H15">
-        <v>14.68148749432154</v>
+        <v>14.681487494321541</v>
       </c>
       <c r="I15">
-        <v>43.27158697355753</v>
+        <v>43.271586973557532</v>
       </c>
       <c r="J15">
         <v>0.4</v>
       </c>
       <c r="K15">
-        <v>43.27158697355753</v>
+        <v>43.271586973557532</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -1709,40 +1773,40 @@
         <v>57.95307446787907</v>
       </c>
       <c r="P15">
-        <v>14.68148749432154</v>
+        <v>14.681487494321541</v>
       </c>
       <c r="Q15">
         <v>1.373046276177277</v>
       </c>
       <c r="R15">
-        <v>23.11322524073608</v>
+        <v>23.113225240736082</v>
       </c>
       <c r="S15">
-        <v>3.947357138729572</v>
+        <v>3.9473571387295721</v>
       </c>
       <c r="T15">
-        <v>3.947357138729572</v>
+        <v>3.9473571387295721</v>
       </c>
       <c r="U15">
         <v>1.373046276177277</v>
       </c>
       <c r="V15">
-        <v>23.11322524073608</v>
+        <v>23.113225240736082</v>
       </c>
       <c r="W15">
-        <v>54.61085256867842</v>
+        <v>54.610852568678418</v>
       </c>
       <c r="X15">
-        <v>97.88243954223596</v>
+        <v>97.882439542235957</v>
       </c>
       <c r="Y15">
-        <v>54.61085256867842</v>
+        <v>54.610852568678418</v>
       </c>
       <c r="Z15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1762,10 +1826,10 @@
         <v>2</v>
       </c>
       <c r="G16">
-        <v>56.12907787181734</v>
+        <v>56.129077871817337</v>
       </c>
       <c r="H16">
-        <v>19.91274811912574</v>
+        <v>19.912748119125741</v>
       </c>
       <c r="I16">
         <v>36.2163297526916</v>
@@ -1774,7 +1838,7 @@
         <v>0.4</v>
       </c>
       <c r="K16">
-        <v>36.21632975269161</v>
+        <v>36.216329752691607</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -1783,37 +1847,37 @@
         <v>0.4</v>
       </c>
       <c r="N16">
-        <v>0.9999999999999996</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="O16">
-        <v>56.12907787181734</v>
+        <v>56.129077871817337</v>
       </c>
       <c r="P16">
-        <v>19.91274811912574</v>
+        <v>19.912748119125741</v>
       </c>
       <c r="Q16">
-        <v>1.03629386475253</v>
+        <v>1.0362938647525299</v>
       </c>
       <c r="R16">
         <v>15.58087104647911</v>
       </c>
       <c r="S16">
-        <v>2.818750959738533</v>
+        <v>2.8187509597385332</v>
       </c>
       <c r="T16">
-        <v>2.818750959738533</v>
+        <v>2.8187509597385332</v>
       </c>
       <c r="U16">
-        <v>1.03629386475253</v>
+        <v>1.0362938647525299</v>
       </c>
       <c r="V16">
         <v>15.58087104647911</v>
       </c>
       <c r="W16">
-        <v>52.80437613312512</v>
+        <v>52.804376133125118</v>
       </c>
       <c r="X16">
-        <v>89.02070588581672</v>
+        <v>89.020705885816724</v>
       </c>
       <c r="Y16">
         <v>52.80437613312511</v>
@@ -1822,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1842,19 +1906,19 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>61.69148737049069</v>
+        <v>61.691487370490691</v>
       </c>
       <c r="H17">
-        <v>24.59731882192962</v>
+        <v>24.597318821929619</v>
       </c>
       <c r="I17">
-        <v>37.09416854856107</v>
+        <v>37.094168548561072</v>
       </c>
       <c r="J17">
         <v>0.4</v>
       </c>
       <c r="K17">
-        <v>37.09416854856106</v>
+        <v>37.094168548561058</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -1866,43 +1930,43 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>61.69148737049069</v>
+        <v>61.691487370490691</v>
       </c>
       <c r="P17">
-        <v>24.59731882192962</v>
+        <v>24.597318821929619</v>
       </c>
       <c r="Q17">
-        <v>0.9195085073096154</v>
+        <v>0.91950850730961542</v>
       </c>
       <c r="R17">
-        <v>14.47672463478986</v>
+        <v>14.476724634789861</v>
       </c>
       <c r="S17">
-        <v>2.508057395080392</v>
+        <v>2.5080573950803919</v>
       </c>
       <c r="T17">
-        <v>2.508057395080392</v>
+        <v>2.5080573950803919</v>
       </c>
       <c r="U17">
-        <v>0.9195085073096154</v>
+        <v>0.91950850730961542</v>
       </c>
       <c r="V17">
-        <v>14.47672463478986</v>
+        <v>14.476724634789861</v>
       </c>
       <c r="W17">
-        <v>66.7187839996556</v>
+        <v>66.718783999655599</v>
       </c>
       <c r="X17">
         <v>103.8129525482167</v>
       </c>
       <c r="Y17">
-        <v>66.71878399965561</v>
+        <v>66.718783999655614</v>
       </c>
       <c r="Z17">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1922,19 +1986,19 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>48.3741071823218</v>
+        <v>48.374107182321801</v>
       </c>
       <c r="H18">
-        <v>16.67965010267734</v>
+        <v>16.679650102677339</v>
       </c>
       <c r="I18">
-        <v>31.69445707964446</v>
+        <v>31.694457079644462</v>
       </c>
       <c r="J18">
         <v>0.4</v>
       </c>
       <c r="K18">
-        <v>31.69445707964447</v>
+        <v>31.694457079644469</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -1943,13 +2007,13 @@
         <v>0.4</v>
       </c>
       <c r="N18">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O18">
-        <v>48.3741071823218</v>
+        <v>48.374107182321801</v>
       </c>
       <c r="P18">
-        <v>16.67965010267734</v>
+        <v>16.679650102677339</v>
       </c>
       <c r="Q18">
         <v>1.064775275347368</v>
@@ -1958,10 +2022,10 @@
         <v>13.93437804886843</v>
       </c>
       <c r="S18">
-        <v>2.900187167268995</v>
+        <v>2.9001871672689949</v>
       </c>
       <c r="T18">
-        <v>2.900187167268995</v>
+        <v>2.9001871672689949</v>
       </c>
       <c r="U18">
         <v>1.064775275347368</v>
@@ -1970,19 +2034,19 @@
         <v>13.93437804886843</v>
       </c>
       <c r="W18">
-        <v>48.42520333899228</v>
+        <v>48.425203338992283</v>
       </c>
       <c r="X18">
-        <v>80.11966041863674</v>
+        <v>80.119660418636741</v>
       </c>
       <c r="Y18">
-        <v>48.42520333899228</v>
+        <v>48.425203338992283</v>
       </c>
       <c r="Z18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2002,19 +2066,19 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>66.85155639568377</v>
+        <v>66.851556395683772</v>
       </c>
       <c r="H19">
-        <v>17.01226491021987</v>
+        <v>17.012264910219869</v>
       </c>
       <c r="I19">
-        <v>49.8392914854639</v>
+        <v>49.839291485463903</v>
       </c>
       <c r="J19">
         <v>0.4</v>
       </c>
       <c r="K19">
-        <v>49.83929148546389</v>
+        <v>49.839291485463889</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -2026,43 +2090,43 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>66.85155639568377</v>
+        <v>66.851556395683772</v>
       </c>
       <c r="P19">
-        <v>17.01226491021987</v>
+        <v>17.012264910219869</v>
       </c>
       <c r="Q19">
-        <v>1.368540035954655</v>
+        <v>1.3685400359546549</v>
       </c>
       <c r="R19">
         <v>26.55732585356149</v>
       </c>
       <c r="S19">
-        <v>3.929609416999125</v>
+        <v>3.9296094169991251</v>
       </c>
       <c r="T19">
-        <v>3.929609416999125</v>
+        <v>3.9296094169991251</v>
       </c>
       <c r="U19">
-        <v>1.368540035954655</v>
+        <v>1.3685400359546549</v>
       </c>
       <c r="V19">
         <v>26.55732585356149</v>
       </c>
       <c r="W19">
-        <v>60.37623507656372</v>
+        <v>60.376235076563717</v>
       </c>
       <c r="X19">
-        <v>110.2155265620276</v>
+        <v>110.21552656202761</v>
       </c>
       <c r="Y19">
-        <v>60.37623507656373</v>
+        <v>60.376235076563731</v>
       </c>
       <c r="Z19">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2082,19 +2146,19 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>50.0544999252965</v>
+        <v>50.054499925296497</v>
       </c>
       <c r="H20">
         <v>13.8272252406106</v>
       </c>
       <c r="I20">
-        <v>36.22727468468591</v>
+        <v>36.227274684685909</v>
       </c>
       <c r="J20">
         <v>0.4</v>
       </c>
       <c r="K20">
-        <v>36.22727468468591</v>
+        <v>36.227274684685909</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -2106,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <v>50.0544999252965</v>
+        <v>50.054499925296497</v>
       </c>
       <c r="P20">
         <v>13.8272252406106</v>
@@ -2115,34 +2179,34 @@
         <v>1.286472918131415</v>
       </c>
       <c r="R20">
-        <v>18.43892387973724</v>
+        <v>18.438923879737239</v>
       </c>
       <c r="S20">
-        <v>3.619995990105542</v>
+        <v>3.6199959901055418</v>
       </c>
       <c r="T20">
-        <v>3.619995990105542</v>
+        <v>3.6199959901055418</v>
       </c>
       <c r="U20">
         <v>1.286472918131415</v>
       </c>
       <c r="V20">
-        <v>18.43892387973724</v>
+        <v>18.438923879737239</v>
       </c>
       <c r="W20">
-        <v>60.65845148765706</v>
+        <v>60.658451487657061</v>
       </c>
       <c r="X20">
         <v>96.88572617234297</v>
       </c>
       <c r="Y20">
-        <v>60.65845148765706</v>
+        <v>60.658451487657061</v>
       </c>
       <c r="Z20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2162,19 +2226,19 @@
         <v>2</v>
       </c>
       <c r="G21">
-        <v>96.56695141328839</v>
+        <v>96.566951413288393</v>
       </c>
       <c r="H21">
         <v>24.4178781608699</v>
       </c>
       <c r="I21">
-        <v>72.1490732524185</v>
+        <v>72.149073252418503</v>
       </c>
       <c r="J21">
         <v>0.4</v>
       </c>
       <c r="K21">
-        <v>72.14907325241852</v>
+        <v>72.149073252418518</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -2183,16 +2247,16 @@
         <v>0.4</v>
       </c>
       <c r="N21">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O21">
-        <v>96.56695141328839</v>
+        <v>96.566951413288393</v>
       </c>
       <c r="P21">
         <v>24.4178781608699</v>
       </c>
       <c r="Q21">
-        <v>1.374920989299751</v>
+        <v>1.3749209892997509</v>
       </c>
       <c r="R21">
         <v>38.57642005487449</v>
@@ -2204,13 +2268,13 @@
         <v>3.954764241883995</v>
       </c>
       <c r="U21">
-        <v>1.374920989299751</v>
+        <v>1.3749209892997509</v>
       </c>
       <c r="V21">
         <v>38.57642005487449</v>
       </c>
       <c r="W21">
-        <v>83.03139028220789</v>
+        <v>83.031390282207894</v>
       </c>
       <c r="X21">
         <v>155.1804635346264</v>
@@ -2222,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2242,19 +2306,19 @@
         <v>2</v>
       </c>
       <c r="G22">
-        <v>65.17036484907217</v>
+        <v>65.170364849072172</v>
       </c>
       <c r="H22">
-        <v>37.72829644696277</v>
+        <v>37.728296446962773</v>
       </c>
       <c r="I22">
-        <v>27.4420684021094</v>
+        <v>27.442068402109399</v>
       </c>
       <c r="J22">
         <v>0.4</v>
       </c>
       <c r="K22">
-        <v>27.4420684021094</v>
+        <v>27.442068402109399</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -2266,16 +2330,16 @@
         <v>1</v>
       </c>
       <c r="O22">
-        <v>65.17036484907217</v>
+        <v>65.170364849072172</v>
       </c>
       <c r="P22">
-        <v>37.72829644696277</v>
+        <v>37.728296446962773</v>
       </c>
       <c r="Q22">
-        <v>0.5465944569462838</v>
+        <v>0.54659445694628384</v>
       </c>
       <c r="R22">
-        <v>6.819990694173374</v>
+        <v>6.8199906941733737</v>
       </c>
       <c r="S22">
         <v>1.727360389586807</v>
@@ -2284,25 +2348,25 @@
         <v>1.727360389586807</v>
       </c>
       <c r="U22">
-        <v>0.5465944569462838</v>
+        <v>0.54659445694628384</v>
       </c>
       <c r="V22">
-        <v>6.819990694173374</v>
+        <v>6.8199906941733737</v>
       </c>
       <c r="W22">
-        <v>73.62426117184332</v>
+        <v>73.624261171843315</v>
       </c>
       <c r="X22">
         <v>101.0663295739527</v>
       </c>
       <c r="Y22">
-        <v>73.62426117184332</v>
+        <v>73.624261171843315</v>
       </c>
       <c r="Z22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2322,19 +2386,19 @@
         <v>2</v>
       </c>
       <c r="G23">
-        <v>30.63257885705237</v>
+        <v>30.632578857052369</v>
       </c>
       <c r="H23">
         <v>16.61584276629204</v>
       </c>
       <c r="I23">
-        <v>14.01673609076033</v>
+        <v>14.016736090760331</v>
       </c>
       <c r="J23">
         <v>0.4</v>
       </c>
       <c r="K23">
-        <v>14.01673609076033</v>
+        <v>14.016736090760331</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -2346,16 +2410,16 @@
         <v>1</v>
       </c>
       <c r="O23">
-        <v>30.63257885705237</v>
+        <v>30.632578857052369</v>
       </c>
       <c r="P23">
         <v>16.61584276629204</v>
       </c>
       <c r="Q23">
-        <v>0.6117074873921894</v>
+        <v>0.61170748739218939</v>
       </c>
       <c r="R23">
-        <v>3.852700661288139</v>
+        <v>3.8527006612881389</v>
       </c>
       <c r="S23">
         <v>1.843576596619918</v>
@@ -2364,25 +2428,25 @@
         <v>1.843576596619918</v>
       </c>
       <c r="U23">
-        <v>0.6117074873921894</v>
+        <v>0.61170748739218939</v>
       </c>
       <c r="V23">
-        <v>3.852700661288139</v>
+        <v>3.8527006612881389</v>
       </c>
       <c r="W23">
-        <v>68.33229855456619</v>
+        <v>68.332298554566194</v>
       </c>
       <c r="X23">
-        <v>82.34903464532653</v>
+        <v>82.349034645326526</v>
       </c>
       <c r="Y23">
-        <v>68.33229855456619</v>
+        <v>68.332298554566194</v>
       </c>
       <c r="Z23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2402,19 +2466,19 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>56.04015679640354</v>
+        <v>56.040156796403537</v>
       </c>
       <c r="H24">
-        <v>35.36839426393709</v>
+        <v>35.368394263937091</v>
       </c>
       <c r="I24">
-        <v>20.67176253246645</v>
+        <v>20.671762532466449</v>
       </c>
       <c r="J24">
         <v>0.4</v>
       </c>
       <c r="K24">
-        <v>20.67176253246645</v>
+        <v>20.671762532466449</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -2426,28 +2490,28 @@
         <v>1</v>
       </c>
       <c r="O24">
-        <v>56.04015679640354</v>
+        <v>56.040156796403537</v>
       </c>
       <c r="P24">
-        <v>35.36839426393709</v>
+        <v>35.368394263937091</v>
       </c>
       <c r="Q24">
-        <v>0.4602499154641659</v>
+        <v>0.46024991546416588</v>
       </c>
       <c r="R24">
-        <v>4.393462062386106</v>
+        <v>4.3934620623861056</v>
       </c>
       <c r="S24">
-        <v>1.584469919052676</v>
+        <v>1.5844699190526761</v>
       </c>
       <c r="T24">
-        <v>1.584469919052676</v>
+        <v>1.5844699190526761</v>
       </c>
       <c r="U24">
-        <v>0.4602499154641659</v>
+        <v>0.46024991546416588</v>
       </c>
       <c r="V24">
-        <v>4.393462062386106</v>
+        <v>4.3934620623861056</v>
       </c>
       <c r="W24">
         <v>101.9903426716633</v>
@@ -2462,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2482,19 +2546,19 @@
         <v>2</v>
       </c>
       <c r="G25">
-        <v>69.45159358712095</v>
+        <v>69.451593587120954</v>
       </c>
       <c r="H25">
-        <v>39.60316767167143</v>
+        <v>39.603167671671429</v>
       </c>
       <c r="I25">
-        <v>29.84842591544952</v>
+        <v>29.848425915449521</v>
       </c>
       <c r="J25">
         <v>0.4</v>
       </c>
       <c r="K25">
-        <v>29.84842591544953</v>
+        <v>29.848425915449528</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -2503,31 +2567,31 @@
         <v>0.4</v>
       </c>
       <c r="N25">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O25">
-        <v>69.45159358712095</v>
+        <v>69.451593587120954</v>
       </c>
       <c r="P25">
-        <v>39.60316767167143</v>
+        <v>39.603167671671429</v>
       </c>
       <c r="Q25">
-        <v>0.5617209079858346</v>
+        <v>0.56172090798583463</v>
       </c>
       <c r="R25">
-        <v>7.602498611802996</v>
+        <v>7.6024986118029956</v>
       </c>
       <c r="S25">
-        <v>1.753687840399707</v>
+        <v>1.7536878403997069</v>
       </c>
       <c r="T25">
-        <v>1.753687840399707</v>
+        <v>1.7536878403997069</v>
       </c>
       <c r="U25">
-        <v>0.5617209079858346</v>
+        <v>0.56172090798583463</v>
       </c>
       <c r="V25">
-        <v>7.602498611802996</v>
+        <v>7.6024986118029956</v>
       </c>
       <c r="W25">
         <v>74.47908498104043</v>
@@ -2536,13 +2600,13 @@
         <v>104.32751089649</v>
       </c>
       <c r="Y25">
-        <v>74.47908498104042</v>
+        <v>74.479084981040415</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2562,19 +2626,19 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>51.49461994679957</v>
+        <v>51.494619946799567</v>
       </c>
       <c r="H26">
-        <v>25.01186278209437</v>
+        <v>25.011862782094369</v>
       </c>
       <c r="I26">
-        <v>26.48275716470519</v>
+        <v>26.482757164705191</v>
       </c>
       <c r="J26">
         <v>0.4</v>
       </c>
       <c r="K26">
-        <v>26.48275716470519</v>
+        <v>26.482757164705191</v>
       </c>
       <c r="L26">
         <v>2</v>
@@ -2586,43 +2650,43 @@
         <v>1</v>
       </c>
       <c r="O26">
-        <v>51.49461994679957</v>
+        <v>51.494619946799567</v>
       </c>
       <c r="P26">
-        <v>25.01186278209437</v>
+        <v>25.011862782094369</v>
       </c>
       <c r="Q26">
-        <v>0.7221271115530948</v>
+        <v>0.72212711155309484</v>
       </c>
       <c r="R26">
-        <v>8.42101293930903</v>
+        <v>8.4210129393090298</v>
       </c>
       <c r="S26">
-        <v>2.058807870306398</v>
+        <v>2.0588078703063979</v>
       </c>
       <c r="T26">
-        <v>2.058807870306398</v>
+        <v>2.0588078703063979</v>
       </c>
       <c r="U26">
-        <v>0.7221271115530948</v>
+        <v>0.72212711155309484</v>
       </c>
       <c r="V26">
-        <v>8.42101293930903</v>
+        <v>8.4210129393090298</v>
       </c>
       <c r="W26">
-        <v>74.90319362379874</v>
+        <v>74.903193623798742</v>
       </c>
       <c r="X26">
-        <v>101.3859507885039</v>
+        <v>101.38595078850391</v>
       </c>
       <c r="Y26">
-        <v>74.90319362379874</v>
+        <v>74.903193623798742</v>
       </c>
       <c r="Z26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2642,19 +2706,19 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>35.69907856549547</v>
+        <v>35.699078565495469</v>
       </c>
       <c r="H27">
         <v>16.5838283840706</v>
       </c>
       <c r="I27">
-        <v>19.11525018142487</v>
+        <v>19.115250181424869</v>
       </c>
       <c r="J27">
         <v>0.4</v>
       </c>
       <c r="K27">
-        <v>19.11525018142487</v>
+        <v>19.115250181424869</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -2666,43 +2730,43 @@
         <v>1</v>
       </c>
       <c r="O27">
-        <v>35.69907856549547</v>
+        <v>35.699078565495469</v>
       </c>
       <c r="P27">
         <v>16.5838283840706</v>
       </c>
       <c r="Q27">
-        <v>0.7666968511654884</v>
+        <v>0.76669685116548836</v>
       </c>
       <c r="R27">
-        <v>6.400481179089098</v>
+        <v>6.4004811790890983</v>
       </c>
       <c r="S27">
-        <v>2.152643993819051</v>
+        <v>2.1526439938190509</v>
       </c>
       <c r="T27">
-        <v>2.152643993819051</v>
+        <v>2.1526439938190509</v>
       </c>
       <c r="U27">
-        <v>0.7666968511654884</v>
+        <v>0.76669685116548836</v>
       </c>
       <c r="V27">
-        <v>6.400481179089098</v>
+        <v>6.4004811790890983</v>
       </c>
       <c r="W27">
-        <v>69.1272233031048</v>
+        <v>69.127223303104799</v>
       </c>
       <c r="X27">
-        <v>88.24247348452967</v>
+        <v>88.242473484529668</v>
       </c>
       <c r="Y27">
-        <v>69.1272233031048</v>
+        <v>69.127223303104799</v>
       </c>
       <c r="Z27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2722,19 +2786,19 @@
         <v>2</v>
       </c>
       <c r="G28">
-        <v>70.82607758368368</v>
+        <v>70.826077583683684</v>
       </c>
       <c r="H28">
-        <v>9.822113772438811</v>
+        <v>9.8221137724388115</v>
       </c>
       <c r="I28">
-        <v>61.00396381124487</v>
+        <v>61.003963811244873</v>
       </c>
       <c r="J28">
         <v>0.4</v>
       </c>
       <c r="K28">
-        <v>61.00396381124487</v>
+        <v>61.003963811244873</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -2746,16 +2810,16 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>70.82607758368368</v>
+        <v>70.826077583683684</v>
       </c>
       <c r="P28">
-        <v>9.822113772438811</v>
+        <v>9.8221137724388115</v>
       </c>
       <c r="Q28">
         <v>1.975590909358047</v>
       </c>
       <c r="R28">
-        <v>41.59948513173428</v>
+        <v>41.599485131734284</v>
       </c>
       <c r="S28">
         <v>7.210879371243295</v>
@@ -2767,22 +2831,22 @@
         <v>1.975590909358047</v>
       </c>
       <c r="V28">
-        <v>41.59948513173428</v>
+        <v>41.599485131734284</v>
       </c>
       <c r="W28">
-        <v>62.02745825200257</v>
+        <v>62.027458252002567</v>
       </c>
       <c r="X28">
         <v>123.0314220632474</v>
       </c>
       <c r="Y28">
-        <v>62.02745825200257</v>
+        <v>62.027458252002567</v>
       </c>
       <c r="Z28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2802,19 +2866,19 @@
         <v>2</v>
       </c>
       <c r="G29">
-        <v>49.84302094019443</v>
+        <v>49.843020940194428</v>
       </c>
       <c r="H29">
         <v>16.06759207966449</v>
       </c>
       <c r="I29">
-        <v>33.77542886052994</v>
+        <v>33.775428860529942</v>
       </c>
       <c r="J29">
         <v>0.4</v>
       </c>
       <c r="K29">
-        <v>33.77542886052994</v>
+        <v>33.775428860529942</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -2826,43 +2890,43 @@
         <v>1</v>
       </c>
       <c r="O29">
-        <v>49.84302094019443</v>
+        <v>49.843020940194428</v>
       </c>
       <c r="P29">
         <v>16.06759207966449</v>
       </c>
       <c r="Q29">
-        <v>1.132074156357962</v>
+        <v>1.1320741563579619</v>
       </c>
       <c r="R29">
         <v>15.58572311223989</v>
       </c>
       <c r="S29">
-        <v>3.102084039292789</v>
+        <v>3.1020840392927891</v>
       </c>
       <c r="T29">
-        <v>3.102084039292789</v>
+        <v>3.1020840392927891</v>
       </c>
       <c r="U29">
-        <v>1.132074156357962</v>
+        <v>1.1320741563579619</v>
       </c>
       <c r="V29">
         <v>15.58572311223989</v>
       </c>
       <c r="W29">
-        <v>78.77500886863923</v>
+        <v>78.775008868639233</v>
       </c>
       <c r="X29">
         <v>112.5504377291692</v>
       </c>
       <c r="Y29">
-        <v>78.77500886863923</v>
+        <v>78.775008868639233</v>
       </c>
       <c r="Z29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2882,10 +2946,10 @@
         <v>2</v>
       </c>
       <c r="G30">
-        <v>32.91021599051001</v>
+        <v>32.910215990510011</v>
       </c>
       <c r="H30">
-        <v>22.26180249210925</v>
+        <v>22.261802492109251</v>
       </c>
       <c r="I30">
         <v>10.64841349840076</v>
@@ -2903,46 +2967,46 @@
         <v>0.4</v>
       </c>
       <c r="N30">
-        <v>0.9999999999999997</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="O30">
-        <v>32.91021599051001</v>
+        <v>32.910215990510011</v>
       </c>
       <c r="P30">
-        <v>22.26180249210925</v>
+        <v>22.261802492109251</v>
       </c>
       <c r="Q30">
-        <v>0.3909108089425253</v>
+        <v>0.39091080894252528</v>
       </c>
       <c r="R30">
         <v>1.946034277691608</v>
       </c>
       <c r="S30">
-        <v>1.47832665401533</v>
+        <v>1.4783266540153299</v>
       </c>
       <c r="T30">
-        <v>1.47832665401533</v>
+        <v>1.4783266540153299</v>
       </c>
       <c r="U30">
-        <v>0.3909108089425253</v>
+        <v>0.39091080894252528</v>
       </c>
       <c r="V30">
         <v>1.946034277691608</v>
       </c>
       <c r="W30">
-        <v>96.44341899907998</v>
+        <v>96.443418999079981</v>
       </c>
       <c r="X30">
-        <v>107.0918324974807</v>
+        <v>107.09183249748069</v>
       </c>
       <c r="Y30">
-        <v>96.44341899907997</v>
+        <v>96.443418999079967</v>
       </c>
       <c r="Z30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2962,19 +3026,19 @@
         <v>2</v>
       </c>
       <c r="G31">
-        <v>59.05781398491118</v>
+        <v>59.057813984911178</v>
       </c>
       <c r="H31">
         <v>15.09950306566034</v>
       </c>
       <c r="I31">
-        <v>43.95831091925083</v>
+        <v>43.958310919250827</v>
       </c>
       <c r="J31">
         <v>0.4</v>
       </c>
       <c r="K31">
-        <v>43.95831091925083</v>
+        <v>43.958310919250827</v>
       </c>
       <c r="L31">
         <v>2</v>
@@ -2986,40 +3050,72 @@
         <v>1</v>
       </c>
       <c r="O31">
-        <v>59.05781398491118</v>
+        <v>59.057813984911178</v>
       </c>
       <c r="P31">
         <v>15.09950306566034</v>
       </c>
       <c r="Q31">
-        <v>1.363855028447941</v>
+        <v>1.3638550284479409</v>
       </c>
       <c r="R31">
-        <v>23.36477773608487</v>
+        <v>23.364777736084871</v>
       </c>
       <c r="S31">
-        <v>3.911242226190999</v>
+        <v>3.9112422261909989</v>
       </c>
       <c r="T31">
-        <v>3.911242226190999</v>
+        <v>3.9112422261909989</v>
       </c>
       <c r="U31">
-        <v>1.363855028447941</v>
+        <v>1.3638550284479409</v>
       </c>
       <c r="V31">
-        <v>23.36477773608487</v>
+        <v>23.364777736084871</v>
       </c>
       <c r="W31">
-        <v>68.04788873849205</v>
+        <v>68.047888738492048</v>
       </c>
       <c r="X31">
         <v>112.0061996577429</v>
       </c>
       <c r="Y31">
-        <v>68.04788873849205</v>
+        <v>68.047888738492048</v>
       </c>
       <c r="Z31">
         <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34">
+        <v>0.96858419399999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35">
+        <v>1.006171312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>0.93107031500000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37">
+        <v>1.011843123</v>
       </c>
     </row>
   </sheetData>

--- a/results/synthetic_constraint_0.1_opt_constrained/k=2(for_10_workers_and_less)/Winner_determination/dataset_01/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/synthetic_constraint_0.1_opt_constrained/k=2(for_10_workers_and_less)/Winner_determination/dataset_01/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\synthetic_constraint_0.1_opt_constrained\k=2(for_10_workers_and_less)\Winner_determination\dataset_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD6670C-DD6F-493B-B992-419BB77CF089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C8C780-C9EC-4F06-BCFA-90F5B5CE765F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -206,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +233,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -258,10 +280,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:B37"/>
     </sheetView>
   </sheetViews>
@@ -3086,39 +3111,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <f>AVERAGE(J2:J31)</f>
+        <v>0.39333333333333353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
-      <c r="B34">
-        <v>0.96858419399999995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <f>AVERAGE(N2:N31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>57</v>
       </c>
-      <c r="B35">
-        <v>1.006171312</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <f>AVERAGE(Z2:Z31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>58</v>
       </c>
-      <c r="B36">
-        <v>0.93107031500000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <f>MIN(N2:N31)</f>
+        <v>0.99999999999999956</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>59</v>
       </c>
-      <c r="B37">
-        <v>1.011843123</v>
+      <c r="B37" s="2">
+        <f>MAX(Z2:Z31)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>